--- a/results/mp/logistic/corona/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -73,100 +64,103 @@
     <t>19</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -532,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7631578947368421</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.95</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7568493150684932</v>
+        <v>0.4867724867724867</v>
       </c>
       <c r="C4">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4406779661016949</v>
+        <v>0.4496124031007752</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4338624338624338</v>
+        <v>0.3154362416107382</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4321705426356589</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="C7">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8537859007832899</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.36</v>
+        <v>0.08042895442359249</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>343</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8484848484848485</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,37 +887,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2751677852348993</v>
+        <v>0.01908767389194435</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>108</v>
+        <v>3032</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,237 +937,141 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1633466135458167</v>
+        <v>0.01461574728901462</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0.42</v>
       </c>
       <c r="F10">
-        <v>0.98</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>210</v>
+        <v>2090</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8093994778067886</v>
+      </c>
+      <c r="L10">
+        <v>310</v>
+      </c>
+      <c r="M10">
+        <v>310</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.8046875</v>
+      </c>
+      <c r="L12">
+        <v>103</v>
+      </c>
+      <c r="M12">
+        <v>103</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.8028169014084507</v>
+      </c>
+      <c r="L13">
+        <v>114</v>
+      </c>
+      <c r="M13">
+        <v>114</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>28</v>
       </c>
-      <c r="K10">
-        <v>0.8207547169811321</v>
-      </c>
-      <c r="L10">
-        <v>87</v>
-      </c>
-      <c r="M10">
-        <v>87</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1048387096774194</v>
-      </c>
-      <c r="C11">
-        <v>39</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>0.03</v>
-      </c>
-      <c r="F11">
-        <v>0.97</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>333</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.80625</v>
-      </c>
-      <c r="L11">
-        <v>129</v>
-      </c>
-      <c r="M11">
-        <v>129</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.01844063409899709</v>
-      </c>
-      <c r="C12">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>73</v>
-      </c>
-      <c r="E12">
-        <v>0.22</v>
-      </c>
-      <c r="F12">
-        <v>0.78</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>3034</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8048780487804879</v>
-      </c>
-      <c r="L12">
-        <v>66</v>
-      </c>
-      <c r="M12">
-        <v>66</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.01187084520417854</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>62</v>
-      </c>
-      <c r="E13">
-        <v>0.6</v>
-      </c>
-      <c r="F13">
-        <v>0.4</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2081</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L13">
-        <v>46</v>
-      </c>
-      <c r="M13">
-        <v>46</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>12</v>
-      </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.008261836669844296</v>
-      </c>
-      <c r="C14">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
-      <c r="E14">
-        <v>0.68</v>
-      </c>
-      <c r="F14">
-        <v>0.32</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3121</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,21 +1083,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7578125</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L15">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1211,47 +1109,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>0.7875</v>
+      </c>
+      <c r="L16">
+        <v>126</v>
+      </c>
+      <c r="M16">
+        <v>126</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>34</v>
-      </c>
-      <c r="K16">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="L16">
-        <v>35</v>
-      </c>
-      <c r="M16">
-        <v>35</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7209302325581395</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1263,21 +1161,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1289,21 +1187,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1315,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7021276595744681</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1341,21 +1239,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6944444444444444</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1367,21 +1265,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.65</v>
+        <v>0.675</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1393,21 +1291,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6461538461538462</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1419,21 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6382978723404256</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1445,21 +1343,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.638235294117647</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L25">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="M25">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1471,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6305084745762712</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L26">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="M26">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1497,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.62</v>
+        <v>0.6067796610169491</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1523,21 +1421,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5815899581589958</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L28">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1549,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5730337078651685</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1575,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1601,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.3974358974358974</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1627,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.3698630136986301</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1653,59 +1551,59 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.01746931067044381</v>
+        <v>0.08143322475570032</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N33">
-        <v>0.6</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0.4</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>2081</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.01700787401574803</v>
+        <v>0.02139710509754563</v>
       </c>
       <c r="L34">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="M34">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="N34">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="O34">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>3121</v>
+        <v>3110</v>
       </c>
     </row>
   </sheetData>
